--- a/Models/Fed Models/Four Models/Similar Words/similar_words_2008_2009.xlsx
+++ b/Models/Fed Models/Four Models/Similar Words/similar_words_2008_2009.xlsx
@@ -461,11 +461,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>lending</t>
+          <t>mortgage</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.4505544304847717</v>
+        <v>0.476609855890274</v>
       </c>
     </row>
     <row r="3">
@@ -479,11 +479,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>floor</t>
+          <t>lending</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.4455131590366363</v>
+        <v>0.4755072295665741</v>
       </c>
     </row>
     <row r="4">
@@ -497,11 +497,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>investor</t>
+          <t>refinance</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.4454082250595093</v>
+        <v>0.4599137008190155</v>
       </c>
     </row>
     <row r="5">
@@ -515,11 +515,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>refinance</t>
+          <t>buyer</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.4353505373001098</v>
+        <v>0.4443101286888122</v>
       </c>
     </row>
     <row r="6">
@@ -533,11 +533,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>mortgage</t>
+          <t>floor</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.4159201383590698</v>
+        <v>0.425670862197876</v>
       </c>
     </row>
     <row r="7">
@@ -551,11 +551,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>deposit</t>
+          <t>investor</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.4148578643798828</v>
+        <v>0.4170790910720825</v>
       </c>
     </row>
     <row r="8">
@@ -569,11 +569,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>buyer</t>
+          <t>tap</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.414069652557373</v>
+        <v>0.3968437910079956</v>
       </c>
     </row>
     <row r="9">
@@ -587,11 +587,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>mutual</t>
+          <t>method</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.3924962878227234</v>
+        <v>0.3918479084968567</v>
       </c>
     </row>
     <row r="10">
@@ -605,11 +605,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>turn</t>
+          <t>deposit</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.3765535950660705</v>
+        <v>0.3908049464225769</v>
       </c>
     </row>
     <row r="11">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.3734666407108307</v>
+        <v>0.3821022808551788</v>
       </c>
     </row>
     <row r="12">
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.4895809590816498</v>
+        <v>0.5050563216209412</v>
       </c>
     </row>
     <row r="13">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.4161010980606079</v>
+        <v>0.4787676632404327</v>
       </c>
     </row>
     <row r="14">
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.4056975543498993</v>
+        <v>0.4347586631774902</v>
       </c>
     </row>
     <row r="15">
@@ -695,11 +695,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>pressure</t>
+          <t>scattered</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.4001957178115845</v>
+        <v>0.4143691658973694</v>
       </c>
     </row>
     <row r="16">
@@ -713,11 +713,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>input</t>
+          <t>commodity</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.394283264875412</v>
+        <v>0.3973327577114105</v>
       </c>
     </row>
     <row r="17">
@@ -731,11 +731,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>respective</t>
+          <t>intensive</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.3927147984504699</v>
+        <v>0.3933558762073517</v>
       </c>
     </row>
     <row r="18">
@@ -749,11 +749,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>wholesale</t>
+          <t>restaurateur</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.388756662607193</v>
+        <v>0.3930320143699646</v>
       </c>
     </row>
     <row r="19">
@@ -767,11 +767,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>restaurateur</t>
+          <t>pressure</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.3879393935203552</v>
+        <v>0.3810980916023254</v>
       </c>
     </row>
     <row r="20">
@@ -785,11 +785,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>passthrough</t>
+          <t>raise</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.3770031332969665</v>
+        <v>0.3708976805210113</v>
       </c>
     </row>
     <row r="21">
@@ -803,11 +803,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>foreseeable</t>
+          <t>respective</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.3757085502147674</v>
+        <v>0.3707828223705292</v>
       </c>
     </row>
     <row r="22">
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.4704438745975494</v>
+        <v>0.473964661359787</v>
       </c>
     </row>
     <row r="23">
@@ -839,11 +839,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>warrant</t>
+          <t>appraiser</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.4354519248008728</v>
+        <v>0.4669564962387085</v>
       </c>
     </row>
     <row r="24">
@@ -857,11 +857,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>instead</t>
+          <t>warrant</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.4131805300712585</v>
+        <v>0.4607550501823425</v>
       </c>
     </row>
     <row r="25">
@@ -875,11 +875,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>cover</t>
+          <t>unwilling</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.4111031889915466</v>
+        <v>0.4281245172023773</v>
       </c>
     </row>
     <row r="26">
@@ -893,11 +893,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>appraiser</t>
+          <t>hospitality</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.4033368229866028</v>
+        <v>0.4055456817150116</v>
       </c>
     </row>
     <row r="27">
@@ -911,11 +911,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>accelerate</t>
+          <t>advantageous</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.4017197489738464</v>
+        <v>0.4042564332485199</v>
       </c>
     </row>
     <row r="28">
@@ -929,11 +929,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>prospective</t>
+          <t>scrutinize</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.3981841504573822</v>
+        <v>0.4034427106380462</v>
       </c>
     </row>
     <row r="29">
@@ -947,11 +947,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>marketing</t>
+          <t>heavily</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.3958861231803894</v>
+        <v>0.3929627537727356</v>
       </c>
     </row>
     <row r="30">
@@ -965,11 +965,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>incentive</t>
+          <t>accelerate</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.3923786282539367</v>
+        <v>0.3873977363109588</v>
       </c>
     </row>
     <row r="31">
@@ -983,11 +983,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>scrutinize</t>
+          <t>marketing</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.3913712799549103</v>
+        <v>0.3850983381271362</v>
       </c>
     </row>
     <row r="32">
@@ -1001,11 +1001,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>minimumwage</t>
+          <t>bargain</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.4749302566051483</v>
+        <v>0.4585401713848114</v>
       </c>
     </row>
     <row r="33">
@@ -1019,11 +1019,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>flooding</t>
+          <t>fastfood</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.4673753976821899</v>
+        <v>0.4450857639312744</v>
       </c>
     </row>
     <row r="34">
@@ -1037,11 +1037,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>hospitality</t>
+          <t>limited</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.461001455783844</v>
+        <v>0.443124383687973</v>
       </c>
     </row>
     <row r="35">
@@ -1055,11 +1055,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>shortage</t>
+          <t>restrict</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.4334230124950409</v>
+        <v>0.4423311650753021</v>
       </c>
     </row>
     <row r="36">
@@ -1073,11 +1073,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>remained</t>
+          <t>qualified</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.4140418767929077</v>
+        <v>0.4328104555606842</v>
       </c>
     </row>
     <row r="37">
@@ -1091,11 +1091,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>position</t>
+          <t>biofuel</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.4121109843254089</v>
+        <v>0.4205729365348816</v>
       </c>
     </row>
     <row r="38">
@@ -1109,11 +1109,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>mechanic</t>
+          <t>trading</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.406787097454071</v>
+        <v>0.4141702353954315</v>
       </c>
     </row>
     <row r="39">
@@ -1127,11 +1127,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>bargain</t>
+          <t>brand</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.4057309329509735</v>
+        <v>0.4115100502967834</v>
       </c>
     </row>
     <row r="40">
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.4019339382648468</v>
+        <v>0.4091064035892486</v>
       </c>
     </row>
     <row r="41">
@@ -1163,11 +1163,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>fastfood</t>
+          <t>relocation</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.3994525074958801</v>
+        <v>0.3972481787204742</v>
       </c>
     </row>
     <row r="42">
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.5423043370246887</v>
+        <v>0.5313065648078918</v>
       </c>
     </row>
     <row r="43">
@@ -1203,7 +1203,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.4741915762424469</v>
+        <v>0.4494546949863434</v>
       </c>
     </row>
     <row r="44">
@@ -1217,11 +1217,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>modest</t>
+          <t>happen</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.4393620491027832</v>
+        <v>0.4373063445091247</v>
       </c>
     </row>
     <row r="45">
@@ -1235,11 +1235,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>indication</t>
+          <t>expect</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.4069166481494903</v>
+        <v>0.4262642562389374</v>
       </c>
     </row>
     <row r="46">
@@ -1253,11 +1253,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>expect</t>
+          <t>initiative</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.4036096334457397</v>
+        <v>0.4171918630599975</v>
       </c>
     </row>
     <row r="47">
@@ -1271,11 +1271,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>happen</t>
+          <t>nothing</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.4017641544342041</v>
+        <v>0.4106299579143524</v>
       </c>
     </row>
     <row r="48">
@@ -1289,11 +1289,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>initiative</t>
+          <t>improvement</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.3983313739299774</v>
+        <v>0.4088772535324096</v>
       </c>
     </row>
     <row r="49">
@@ -1307,11 +1307,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>strengthening</t>
+          <t>indication</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.3798718154430389</v>
+        <v>0.3911709189414978</v>
       </c>
     </row>
     <row r="50">
@@ -1325,11 +1325,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>reveal</t>
+          <t>optimistic</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.3716138899326324</v>
+        <v>0.3872103989124298</v>
       </c>
     </row>
     <row r="51">
@@ -1343,11 +1343,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>remain</t>
+          <t>floorplan</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.3627282679080963</v>
+        <v>0.3785135149955749</v>
       </c>
     </row>
   </sheetData>
